--- a/biology/Histoire de la zoologie et de la botanique/Wilfrid_Le_Gros_Clark/Wilfrid_Le_Gros_Clark.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilfrid_Le_Gros_Clark/Wilfrid_Le_Gros_Clark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilfrid Le Gros Clark (5 juin 1895 - 28 juin 1971) est un anatomiste et un chirurgien britannique qui a apporté une contribution significative à la paléoprimatologie et à la paléoanthropologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilfrid Edward Le Gros Clark fit ses études secondaires à l'école privée de Blundell (en), puis des études à la faculté de médecine de St Thomas' Hospital, à Lambeth, dans le Grand Londres.
 </t>
@@ -542,10 +556,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commença sa carrière de médecin en 1918 sur le front de la Première Guerre mondiale, dans le Nord de la France.
-En 1934, il obtient la chaire d'anatomie de l'université d'Oxford[1]. L'année suivante, il est admis à la Royal Society[2].
+En 1934, il obtient la chaire d'anatomie de l'université d'Oxford. L'année suivante, il est admis à la Royal Society.
 Il obtient la médaille royale en 1961.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Paléoanthropologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec Kenneth Oakley et Joseph Weiner, il a démontré en 1953 que l'homme de Piltdown relevait d'une fraude scientifique, mettant fin à une longue supercherie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec Kenneth Oakley et Joseph Weiner, il a démontré en 1953 que l'homme de Piltdown relevait d'une fraude scientifique, mettant fin à une longue supercherie.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Paléoprimatologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Avec Louis Leakey, il a décrit plusieurs espèces de singes fossiles découverts en Afrique de l'Est :
 † Proconsul major, Le Gros Clark &amp; Leakey, 1950
@@ -639,7 +659,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le Gros Clark W. E. (1928), Rhodesian man, Man 28: p.206–207
 Le Gros Clark W. E. (1935), Man’s place among the primates, Man 35: p.1–6
